--- a/public/excels/ImportGPGHGX.xlsx
+++ b/public/excels/ImportGPGHGX.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Subject\christitan family books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sgdcg\public\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F5FB5E-59F8-4BEF-B6C2-0557612C5872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7275"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Giáo tỉnh" sheetId="5" r:id="rId1"/>
@@ -117,7 +118,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -148,7 +152,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,34 +432,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -467,23 +471,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,14 +497,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -534,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -551,10 +555,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>GiaoTinh</formula1>
     </dataValidation>
   </dataValidations>
@@ -564,32 +568,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -600,7 +604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -611,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -622,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -639,35 +643,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="3" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -681,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -695,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -709,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -729,36 +734,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -772,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -786,7 +791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -800,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
